--- a/Quellen.xlsx
+++ b/Quellen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\Bombermann\SuperBomberman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\Bombermann\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$8</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,11 +57,6 @@
 selbe Musik zu hören.</t>
   </si>
   <si>
-    <t>Sprite Sheet mit allen Bildern für Bomberman.
-Dieses wurde geschnitten und editiert. Alle Sprites wurden 
-als Einzelbilder in den Ordner SpriteSheetImages gespeichert.</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/Zangrutz/sounds/155235/</t>
   </si>
   <si>
@@ -73,6 +71,11 @@
   <si>
     <t>Downloadname 155235__zangrutz__bomb-small. 
 Sound wenn eine Bombe explodiert.</t>
+  </si>
+  <si>
+    <t>Sprite Sheet mit allen Bildern für Bomberman.
+Dieses wurde geschnitten und editiert. Fast alle Sprites wurden 
+als Einzelbilder in den Ordner SpriteSheetImages gespeichert.</t>
   </si>
 </sst>
 </file>
@@ -438,16 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="96.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -470,12 +476,12 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -486,7 +492,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -497,21 +503,23 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{506BB6A5-4AED-49BF-AC73-2F5BC0E548DA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4B00EEAD-412F-4483-BDB2-3B537AE36693}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{506BB6A5-4AED-49BF-AC73-2F5BC0E548DA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{4B00EEAD-412F-4483-BDB2-3B537AE36693}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{90276D57-0EF8-40BF-A93E-55444BB7531C}"/>
   </hyperlinks>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Quellen.xlsx
+++ b/Quellen.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -446,8 +446,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -517,9 +517,10 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{506BB6A5-4AED-49BF-AC73-2F5BC0E548DA}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{4B00EEAD-412F-4483-BDB2-3B537AE36693}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{90276D57-0EF8-40BF-A93E-55444BB7531C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7ACBCEFC-10EB-4B89-A387-24F561305056}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>